--- a/Documentation/SCRUM/TimeLog_(Kubra).xlsx
+++ b/Documentation/SCRUM/TimeLog_(Kubra).xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hatic\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Hatice Kübra Cetin\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2F248BA-1CC6-4A75-8464-9FBB9A02AD6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{005682E4-8209-48B6-A4FD-1587C755EA8A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-96" yWindow="-96" windowWidth="19392" windowHeight="10392" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1100" yWindow="1100" windowWidth="18000" windowHeight="11170" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Tabelle1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t xml:space="preserve">Time Log </t>
   </si>
@@ -91,6 +91,18 @@
   </si>
   <si>
     <t>meeting with team members, learn database programming (T-SQL)</t>
+  </si>
+  <si>
+    <t>Learning SpringBoot Framework</t>
+  </si>
+  <si>
+    <t>Stored Procedure for Panic Button</t>
+  </si>
+  <si>
+    <t>Meeting with other team mates</t>
+  </si>
+  <si>
+    <t>Setup of all environments on the new Laptop</t>
   </si>
 </sst>
 </file>
@@ -176,7 +188,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -204,10 +216,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -498,18 +507,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.6484375" defaultRowHeight="15.6" x14ac:dyDescent="0.6"/>
+  <sheetFormatPr defaultColWidth="10.6640625" defaultRowHeight="15.5" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="11" style="5" customWidth="1"/>
-    <col min="2" max="4" width="11.34765625" style="5" customWidth="1"/>
+    <col min="2" max="4" width="11.33203125" style="5" customWidth="1"/>
     <col min="6" max="6" width="151.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -519,7 +528,7 @@
       <c r="C1" s="4"/>
       <c r="D1" s="4"/>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B3" s="4"/>
       <c r="E3" s="8" t="s">
         <v>1</v>
@@ -528,16 +537,16 @@
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.6">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
       <c r="B4" s="4"/>
       <c r="E4" s="8" t="s">
         <v>2</v>
       </c>
-      <c r="F4" s="14">
+      <c r="F4" s="13">
         <v>3138174</v>
       </c>
     </row>
-    <row r="6" spans="1:6" s="10" customFormat="1" ht="31.2" x14ac:dyDescent="0.6">
+    <row r="6" spans="1:6" s="10" customFormat="1" ht="31" x14ac:dyDescent="0.35">
       <c r="A6" s="9" t="s">
         <v>9</v>
       </c>
@@ -557,7 +566,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="7" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="7" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A7" s="11">
         <v>1</v>
       </c>
@@ -568,18 +577,18 @@
       <c r="C7" s="6">
         <v>44102</v>
       </c>
-      <c r="D7" s="12">
+      <c r="D7" s="7">
         <f>C7+6</f>
         <v>44108</v>
       </c>
-      <c r="E7" s="13">
+      <c r="E7" s="12">
         <v>1</v>
       </c>
-      <c r="F7" s="13" t="s">
+      <c r="F7" s="12" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="8" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="8" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A8" s="11">
         <v>2</v>
       </c>
@@ -591,18 +600,18 @@
         <f>C7+7</f>
         <v>44109</v>
       </c>
-      <c r="D8" s="12">
+      <c r="D8" s="7">
         <f t="shared" ref="D8:D22" si="1">C8+6</f>
         <v>44115</v>
       </c>
-      <c r="E8" s="13">
+      <c r="E8" s="12">
         <v>5</v>
       </c>
-      <c r="F8" s="13" t="s">
+      <c r="F8" s="12" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="9" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A9" s="11">
         <v>3</v>
       </c>
@@ -614,18 +623,18 @@
         <f t="shared" ref="C9:C22" si="2">C8+7</f>
         <v>44116</v>
       </c>
-      <c r="D9" s="12">
+      <c r="D9" s="7">
         <f t="shared" si="1"/>
         <v>44122</v>
       </c>
-      <c r="E9" s="13">
+      <c r="E9" s="12">
         <v>10</v>
       </c>
-      <c r="F9" s="13" t="s">
+      <c r="F9" s="12" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="10" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A10" s="11">
         <v>4</v>
       </c>
@@ -637,18 +646,18 @@
         <f t="shared" si="2"/>
         <v>44123</v>
       </c>
-      <c r="D10" s="12">
+      <c r="D10" s="7">
         <f t="shared" si="1"/>
         <v>44129</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="12">
         <v>9</v>
       </c>
-      <c r="F10" s="13" t="s">
+      <c r="F10" s="12" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="11" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="11" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A11" s="11">
         <v>5</v>
       </c>
@@ -660,18 +669,18 @@
         <f t="shared" si="2"/>
         <v>44130</v>
       </c>
-      <c r="D11" s="12">
+      <c r="D11" s="7">
         <f t="shared" si="1"/>
         <v>44136</v>
       </c>
-      <c r="E11" s="13">
+      <c r="E11" s="12">
         <v>4</v>
       </c>
-      <c r="F11" s="13" t="s">
+      <c r="F11" s="12" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="12" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="12" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A12" s="11">
         <v>6</v>
       </c>
@@ -683,18 +692,18 @@
         <f t="shared" si="2"/>
         <v>44137</v>
       </c>
-      <c r="D12" s="12">
+      <c r="D12" s="7">
         <f t="shared" si="1"/>
         <v>44143</v>
       </c>
-      <c r="E12" s="13">
+      <c r="E12" s="12">
         <v>10</v>
       </c>
-      <c r="F12" s="13" t="s">
+      <c r="F12" s="12" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="13" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="13" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A13" s="11">
         <v>7</v>
       </c>
@@ -706,18 +715,18 @@
         <f t="shared" si="2"/>
         <v>44144</v>
       </c>
-      <c r="D13" s="12">
+      <c r="D13" s="7">
         <f t="shared" si="1"/>
         <v>44150</v>
       </c>
-      <c r="E13" s="13">
+      <c r="E13" s="12">
         <v>5</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="12" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="14" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A14" s="11">
         <v>8</v>
       </c>
@@ -729,14 +738,18 @@
         <f t="shared" si="2"/>
         <v>44151</v>
       </c>
-      <c r="D14" s="12">
+      <c r="D14" s="7">
         <f t="shared" si="1"/>
         <v>44157</v>
       </c>
-      <c r="E14" s="13"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E14" s="12">
+        <v>8</v>
+      </c>
+      <c r="F14" s="12" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A15" s="11">
         <v>9</v>
       </c>
@@ -748,14 +761,18 @@
         <f t="shared" si="2"/>
         <v>44158</v>
       </c>
-      <c r="D15" s="12">
+      <c r="D15" s="7">
         <f t="shared" si="1"/>
         <v>44164</v>
       </c>
-      <c r="E15" s="13"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E15" s="12">
+        <v>2</v>
+      </c>
+      <c r="F15" s="12" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A16" s="11">
         <v>10</v>
       </c>
@@ -767,14 +784,18 @@
         <f t="shared" si="2"/>
         <v>44165</v>
       </c>
-      <c r="D16" s="12">
+      <c r="D16" s="7">
         <f t="shared" si="1"/>
         <v>44171</v>
       </c>
-      <c r="E16" s="13"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E16" s="12">
+        <v>2</v>
+      </c>
+      <c r="F16" s="12" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A17" s="11">
         <v>11</v>
       </c>
@@ -786,14 +807,18 @@
         <f t="shared" si="2"/>
         <v>44172</v>
       </c>
-      <c r="D17" s="12">
+      <c r="D17" s="7">
         <f t="shared" si="1"/>
         <v>44178</v>
       </c>
-      <c r="E17" s="13"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E17" s="12">
+        <v>4</v>
+      </c>
+      <c r="F17" s="12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A18" s="11">
         <v>12</v>
       </c>
@@ -805,14 +830,14 @@
         <f t="shared" si="2"/>
         <v>44179</v>
       </c>
-      <c r="D18" s="12">
+      <c r="D18" s="7">
         <f t="shared" si="1"/>
         <v>44185</v>
       </c>
-      <c r="E18" s="13"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E18" s="12"/>
+      <c r="F18" s="12"/>
+    </row>
+    <row r="19" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A19" s="11">
         <v>13</v>
       </c>
@@ -824,14 +849,14 @@
         <f t="shared" si="2"/>
         <v>44186</v>
       </c>
-      <c r="D19" s="12">
+      <c r="D19" s="7">
         <f t="shared" si="1"/>
         <v>44192</v>
       </c>
-      <c r="E19" s="13"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E19" s="12"/>
+      <c r="F19" s="12"/>
+    </row>
+    <row r="20" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A20" s="11">
         <v>14</v>
       </c>
@@ -843,14 +868,14 @@
         <f t="shared" si="2"/>
         <v>44193</v>
       </c>
-      <c r="D20" s="12">
+      <c r="D20" s="7">
         <f t="shared" si="1"/>
         <v>44199</v>
       </c>
-      <c r="E20" s="13"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E20" s="12"/>
+      <c r="F20" s="12"/>
+    </row>
+    <row r="21" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A21" s="11">
         <v>15</v>
       </c>
@@ -862,14 +887,14 @@
         <f t="shared" si="2"/>
         <v>44200</v>
       </c>
-      <c r="D21" s="12">
+      <c r="D21" s="7">
         <f t="shared" si="1"/>
         <v>44206</v>
       </c>
-      <c r="E21" s="13"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="E21" s="12"/>
+      <c r="F21" s="12"/>
+    </row>
+    <row r="22" spans="1:6" s="10" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A22" s="11">
         <v>16</v>
       </c>
@@ -881,12 +906,12 @@
         <f t="shared" si="2"/>
         <v>44207</v>
       </c>
-      <c r="D22" s="12">
+      <c r="D22" s="7">
         <f t="shared" si="1"/>
         <v>44213</v>
       </c>
-      <c r="E22" s="13"/>
-      <c r="F22" s="13"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="12"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
